--- a/IP Címek.xlsx
+++ b/IP Címek.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_07AD34100D61CFFC572CB6A4EA02823AD1827D6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEAF91B0-1429-4733-89F4-EF00C94F9487}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="5" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Szerver szoba" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="Központok" sheetId="4" r:id="rId5"/>
     <sheet name="3 router" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,151 +46,433 @@
     <t>Szerver szoba</t>
   </si>
   <si>
+    <t>Használt IP range</t>
+  </si>
+  <si>
+    <t>172.16.10.1-től</t>
+  </si>
+  <si>
     <t>Szerver - Linux</t>
   </si>
   <si>
+    <t>172.16.10.250</t>
+  </si>
+  <si>
+    <t>172.16.10.254-ig</t>
+  </si>
+  <si>
     <t>Szerver - Windows</t>
   </si>
   <si>
+    <t>172.16.10.251</t>
+  </si>
+  <si>
     <t>PC - Admin</t>
   </si>
   <si>
+    <t>172.16.16.100</t>
+  </si>
+  <si>
+    <t>Tűzfal és Router közötti kapcsolat</t>
+  </si>
+  <si>
+    <t>30.30.30.0/30</t>
+  </si>
+  <si>
     <t>Switch - Szerverszoba</t>
   </si>
   <si>
+    <t>172.16.10.101</t>
+  </si>
+  <si>
     <t>Tűzfal</t>
   </si>
   <si>
-    <t>172.16.10.1-től</t>
-  </si>
-  <si>
-    <t>172.16.10.254-ig</t>
-  </si>
-  <si>
-    <t>172.16.10.250</t>
-  </si>
-  <si>
-    <t>172.16.10.251</t>
-  </si>
-  <si>
-    <t>172.16.16.100</t>
-  </si>
-  <si>
-    <t>172.16.10.101</t>
+    <t xml:space="preserve"> G1/1:172.16.10.2</t>
+  </si>
+  <si>
+    <t>Routerek közötti kapcsolatok</t>
+  </si>
+  <si>
+    <t>G1/2:30.30.30.1</t>
+  </si>
+  <si>
+    <t>10.10.120.0/30</t>
+  </si>
+  <si>
+    <t>Server_NAT_Router</t>
+  </si>
+  <si>
+    <t>G0/0:30.30.30.2</t>
+  </si>
+  <si>
+    <t>10.10.130.0/30</t>
+  </si>
+  <si>
+    <t>S0/2/0:10.10.130.2</t>
+  </si>
+  <si>
+    <t>30.30.10.0/30 (lebegő statikus)</t>
+  </si>
+  <si>
+    <t>S0/3/0:10.10.120.1</t>
+  </si>
+  <si>
+    <t>G0/1:30.30.10.2</t>
+  </si>
+  <si>
+    <t>Social Media Team</t>
+  </si>
+  <si>
+    <t>10.10.80.1-től</t>
+  </si>
+  <si>
+    <t>Otthoni Cisco Router S0/2/0</t>
+  </si>
+  <si>
+    <t>10.10.10.2</t>
+  </si>
+  <si>
+    <t>10.10.80.254-ig</t>
+  </si>
+  <si>
+    <t>Otthoni Cisco Router G0/0</t>
+  </si>
+  <si>
+    <t>10.10.80.1</t>
+  </si>
+  <si>
+    <t>Otthoni Cisco Router Tunnel 10</t>
+  </si>
+  <si>
+    <t>172.16.100.2</t>
+  </si>
+  <si>
+    <t>VPN tunnel</t>
+  </si>
+  <si>
+    <t>172.16.100.0/30</t>
   </si>
   <si>
     <t>PC_Social</t>
   </si>
   <si>
+    <t>DHCP által kiosztva</t>
+  </si>
+  <si>
+    <t>192.168.69.1-től</t>
+  </si>
+  <si>
+    <t>Raktár</t>
+  </si>
+  <si>
+    <t>G0/0:192.168.10.1</t>
+  </si>
+  <si>
+    <t>S0/2/0:10.10.130.1</t>
+  </si>
+  <si>
+    <t>192.168.69.10-ig</t>
+  </si>
+  <si>
+    <t>S0/3/0:10.10.50.1</t>
+  </si>
+  <si>
+    <t>Raktár Tunnel 10</t>
+  </si>
+  <si>
+    <t>172.16.100.1</t>
+  </si>
+  <si>
+    <t>Nyomtató</t>
+  </si>
+  <si>
+    <t>192.168.69.10</t>
+  </si>
+  <si>
+    <t>PC_Raktar1</t>
+  </si>
+  <si>
+    <t>192.168.69.5</t>
+  </si>
+  <si>
+    <t>PC_Raktar2</t>
+  </si>
+  <si>
+    <t>192.168.69.6</t>
+  </si>
+  <si>
+    <t>10.10.50.0/30</t>
+  </si>
+  <si>
+    <t>Cell Tower</t>
+  </si>
+  <si>
+    <t>172.16.20.20-től</t>
+  </si>
+  <si>
+    <t>Összekötő router</t>
+  </si>
+  <si>
+    <t>S0/3/1:10.10.20.1</t>
+  </si>
+  <si>
+    <t>172.16.20.25-ig</t>
+  </si>
+  <si>
+    <t>S0/3/0:10.10.70.1</t>
+  </si>
+  <si>
+    <t>G0/1: nincs ip (hsrp)</t>
+  </si>
+  <si>
+    <t>G0/0: 192.168.86.1</t>
+  </si>
+  <si>
+    <t>COS Szerver</t>
+  </si>
+  <si>
+    <t>Backbone: 192.168.86.2</t>
+  </si>
+  <si>
+    <t>Cellular: 172.16.20.1</t>
+  </si>
+  <si>
+    <t>Tablet_CT1</t>
+  </si>
+  <si>
+    <t>Tablet_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manager Központ</t>
+  </si>
+  <si>
     <t>10.10.10.1-től</t>
   </si>
   <si>
+    <t>10.10.20.1-től</t>
+  </si>
+  <si>
+    <t>10.10.30.1-től</t>
+  </si>
+  <si>
+    <t>10.10.40.1-től</t>
+  </si>
+  <si>
+    <t>10.10.50.1-től</t>
+  </si>
+  <si>
+    <t>Fő Router</t>
+  </si>
+  <si>
+    <t>10.10.10.1</t>
+  </si>
+  <si>
     <t>10.10.10.254-ig</t>
   </si>
   <si>
-    <t>10.10.10.1</t>
-  </si>
-  <si>
-    <t>10.10.10.2</t>
+    <t>10.10.40.254-ig</t>
+  </si>
+  <si>
+    <t>10.10.50.254-ig</t>
+  </si>
+  <si>
+    <t>Fő Router S0/2/0</t>
+  </si>
+  <si>
+    <t>10.10.40.1</t>
+  </si>
+  <si>
+    <t>Fő Router S0/2/1</t>
+  </si>
+  <si>
+    <t>10.10.50.1</t>
+  </si>
+  <si>
+    <t>Fő Router S0/3/0</t>
+  </si>
+  <si>
+    <t>Fő Router S0/3/1</t>
+  </si>
+  <si>
+    <t>10.10.20.1</t>
+  </si>
+  <si>
+    <t>Összekötő Router 1 S0/2/0</t>
+  </si>
+  <si>
+    <t>10.10.40.2</t>
+  </si>
+  <si>
+    <t>Összekötő Router 1 S0/3/1</t>
+  </si>
+  <si>
+    <t>10.10.30.2</t>
+  </si>
+  <si>
+    <t>Összekötő Router 1 G0/2</t>
+  </si>
+  <si>
+    <t>10.10.60.2</t>
+  </si>
+  <si>
+    <t>Összekötő Router 2 S0/2/1</t>
+  </si>
+  <si>
+    <t>10.10.20.100</t>
+  </si>
+  <si>
+    <t>Összekötő Router 2 S0/3/1</t>
+  </si>
+  <si>
+    <t>10.10.30.100</t>
+  </si>
+  <si>
+    <t>Összekötő Router 2 G0/2</t>
+  </si>
+  <si>
+    <t>10.10.70.100</t>
+  </si>
+  <si>
+    <t>Összekötő Switch 1</t>
   </si>
   <si>
     <t>10.10.10.101</t>
   </si>
   <si>
+    <t>WLC</t>
+  </si>
+  <si>
     <t>10.10.10.102</t>
   </si>
   <si>
+    <t>WLC Control PC</t>
+  </si>
+  <si>
     <t>10.10.10.103</t>
   </si>
   <si>
-    <t>Fő Router</t>
-  </si>
-  <si>
-    <t>Összekötő Switch 1</t>
-  </si>
-  <si>
-    <t>WLC</t>
-  </si>
-  <si>
-    <t>WLC Control PC</t>
-  </si>
-  <si>
     <t>Irányító Központ</t>
   </si>
   <si>
+    <t>192.168.10.1-től</t>
+  </si>
+  <si>
+    <t>Irányító központ Switch</t>
+  </si>
+  <si>
+    <t>192.168.10.2</t>
+  </si>
+  <si>
+    <t>192.168.10.254-ig</t>
+  </si>
+  <si>
     <t>Irányító központ LAP</t>
   </si>
   <si>
+    <t>192.168.10.3</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>192.168.10.100</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>192.168.10.101</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>192.168.10.102</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>192.168.10.103</t>
+  </si>
+  <si>
+    <t>Irányító központ Nyomtató</t>
+  </si>
+  <si>
+    <t>192.168.10.104</t>
+  </si>
+  <si>
+    <t>Kutató  Központ</t>
+  </si>
+  <si>
+    <t>192.168.30.1-től</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kutató központ Switch </t>
+  </si>
+  <si>
+    <t>192.168.30.1</t>
+  </si>
+  <si>
+    <t>192.168.30.254-ig</t>
+  </si>
+  <si>
+    <t>Kutató központ LAP</t>
+  </si>
+  <si>
+    <t>192.168.30.2</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>192.168.30.100</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>192.168.30.101</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>192.168.30.102</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>192.168.30.103</t>
+  </si>
+  <si>
+    <t>Kutató központ Nyomtató</t>
+  </si>
+  <si>
+    <t>192.168.30.104</t>
+  </si>
+  <si>
+    <t>Tervezési központ</t>
+  </si>
+  <si>
+    <t>192.168.20.1-től</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tervezési központ Switch </t>
+  </si>
+  <si>
+    <t>192.168.20.1</t>
+  </si>
+  <si>
+    <t>192.168.20.254-ig</t>
+  </si>
+  <si>
     <t>Tervezési központ LAP</t>
   </si>
   <si>
-    <t>Kutató központ LAP</t>
-  </si>
-  <si>
-    <t>192.168.10.1-től</t>
-  </si>
-  <si>
-    <t>192.168.10.254-ig</t>
-  </si>
-  <si>
-    <t>192.168.20.1-től</t>
-  </si>
-  <si>
-    <t>192.168.20.254-ig</t>
-  </si>
-  <si>
-    <t>192.168.30.1-től</t>
-  </si>
-  <si>
-    <t>192.168.30.254-ig</t>
-  </si>
-  <si>
-    <t>PC1</t>
-  </si>
-  <si>
-    <t>PC2</t>
-  </si>
-  <si>
-    <t>PC3</t>
-  </si>
-  <si>
-    <t>PC4</t>
-  </si>
-  <si>
-    <t>Irányító központ Nyomtató</t>
-  </si>
-  <si>
-    <t>192.168.10.2</t>
-  </si>
-  <si>
-    <t>Használt IP range</t>
-  </si>
-  <si>
-    <t>192.168.10.100</t>
-  </si>
-  <si>
-    <t>192.168.10.101</t>
-  </si>
-  <si>
-    <t>192.168.10.102</t>
-  </si>
-  <si>
-    <t>192.168.10.103</t>
-  </si>
-  <si>
-    <t>192.168.10.104</t>
-  </si>
-  <si>
-    <t>PC5</t>
-  </si>
-  <si>
-    <t>PC6</t>
-  </si>
-  <si>
-    <t>PC7</t>
-  </si>
-  <si>
-    <t>PC8</t>
+    <t>192.168.20.2</t>
   </si>
   <si>
     <t>192.168.20.100</t>
@@ -204,292 +487,10 @@
     <t>192.168.20.103</t>
   </si>
   <si>
+    <t>Tervezési központ Nyomtató</t>
+  </si>
+  <si>
     <t>192.168.20.104</t>
-  </si>
-  <si>
-    <t>192.168.20.1</t>
-  </si>
-  <si>
-    <t>192.168.20.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kutató központ Switch </t>
-  </si>
-  <si>
-    <t>Kutató központ Nyomtató</t>
-  </si>
-  <si>
-    <t>192.168.30.1</t>
-  </si>
-  <si>
-    <t>192.168.30.2</t>
-  </si>
-  <si>
-    <t>192.168.30.100</t>
-  </si>
-  <si>
-    <t>192.168.30.101</t>
-  </si>
-  <si>
-    <t>192.168.30.102</t>
-  </si>
-  <si>
-    <t>192.168.30.103</t>
-  </si>
-  <si>
-    <t>192.168.30.104</t>
-  </si>
-  <si>
-    <t>Tervezési központ</t>
-  </si>
-  <si>
-    <t>Tervezési központ Nyomtató</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tervezési központ Switch </t>
-  </si>
-  <si>
-    <t>Kutató  Központ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manager Központ</t>
-  </si>
-  <si>
-    <t>10.10.80.1-től</t>
-  </si>
-  <si>
-    <t>10.10.80.254-ig</t>
-  </si>
-  <si>
-    <t>10.10.80.1</t>
-  </si>
-  <si>
-    <t>Otthoni Cisco Router S0/2/0</t>
-  </si>
-  <si>
-    <t>10.10.50.1</t>
-  </si>
-  <si>
-    <t>Fő Router S0/2/1</t>
-  </si>
-  <si>
-    <t>Fő Router S0/2/0</t>
-  </si>
-  <si>
-    <t>10.10.40.1</t>
-  </si>
-  <si>
-    <t>Fő Router S0/3/1</t>
-  </si>
-  <si>
-    <t>10.10.20.1</t>
-  </si>
-  <si>
-    <t>Fő Router S0/3/0</t>
-  </si>
-  <si>
-    <t>10.10.20.1-től</t>
-  </si>
-  <si>
-    <t>10.10.30.1-től</t>
-  </si>
-  <si>
-    <t>10.10.40.254-ig</t>
-  </si>
-  <si>
-    <t>10.10.50.1-től</t>
-  </si>
-  <si>
-    <t>10.10.40.1-től</t>
-  </si>
-  <si>
-    <t>10.10.50.254-ig</t>
-  </si>
-  <si>
-    <t>Összekötő Router 1 S0/2/0</t>
-  </si>
-  <si>
-    <t>Összekötő Router 1 S0/3/1</t>
-  </si>
-  <si>
-    <t>Összekötő Router 1 G0/2</t>
-  </si>
-  <si>
-    <t>10.10.40.2</t>
-  </si>
-  <si>
-    <t>10.10.30.2</t>
-  </si>
-  <si>
-    <t>10.10.60.2</t>
-  </si>
-  <si>
-    <t>Összekötő Router 2 S0/2/1</t>
-  </si>
-  <si>
-    <t>Összekötő Router 2 S0/3/1</t>
-  </si>
-  <si>
-    <t>Összekötő Router 2 G0/2</t>
-  </si>
-  <si>
-    <t>10.10.70.100</t>
-  </si>
-  <si>
-    <t>10.10.30.100</t>
-  </si>
-  <si>
-    <t>10.10.20.100</t>
-  </si>
-  <si>
-    <t>Irányító központ Switch</t>
-  </si>
-  <si>
-    <t>192.168.10.3</t>
-  </si>
-  <si>
-    <t>G1/2:30.30.30.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> G1/1:172.16.10.2</t>
-  </si>
-  <si>
-    <t>Server_NAT_Router</t>
-  </si>
-  <si>
-    <t>G0/0:30.30.30.2</t>
-  </si>
-  <si>
-    <t>S0/2/0:10.10.130.2</t>
-  </si>
-  <si>
-    <t>S0/3/0:10.10.120.1</t>
-  </si>
-  <si>
-    <t>G0/1:30.30.10.2</t>
-  </si>
-  <si>
-    <t>Tűzfal és Router közötti kapcsolat</t>
-  </si>
-  <si>
-    <t>30.30.30.0/30</t>
-  </si>
-  <si>
-    <t>Routerek közötti kapcsolatok</t>
-  </si>
-  <si>
-    <t>10.10.120.0/30</t>
-  </si>
-  <si>
-    <t>10.10.130.0/30</t>
-  </si>
-  <si>
-    <t>30.30.10.0/30 (lebegő statikus)</t>
-  </si>
-  <si>
-    <t>Social Media Team</t>
-  </si>
-  <si>
-    <t>Otthoni Cisco Router G0/0</t>
-  </si>
-  <si>
-    <t>Otthoni Cisco Router Tunnel 10</t>
-  </si>
-  <si>
-    <t>172.16.100.2</t>
-  </si>
-  <si>
-    <t>DHCP által kiosztva</t>
-  </si>
-  <si>
-    <t>VPN tunnel</t>
-  </si>
-  <si>
-    <t>172.16.100.0/30</t>
-  </si>
-  <si>
-    <t>Nyomtató</t>
-  </si>
-  <si>
-    <t>192.168.69.10</t>
-  </si>
-  <si>
-    <t>192.168.69.5</t>
-  </si>
-  <si>
-    <t>192.168.69.6</t>
-  </si>
-  <si>
-    <t>192.168.69.1-től</t>
-  </si>
-  <si>
-    <t>192.168.69.10-ig</t>
-  </si>
-  <si>
-    <t>10.10.50.0/30</t>
-  </si>
-  <si>
-    <t>Raktár</t>
-  </si>
-  <si>
-    <t>G0/0:192.168.10.1</t>
-  </si>
-  <si>
-    <t>S0/3/0:10.10.50.1</t>
-  </si>
-  <si>
-    <t>S0/2/0:10.10.130.1</t>
-  </si>
-  <si>
-    <t>172.16.100.1</t>
-  </si>
-  <si>
-    <t>Raktár Tunnel 10</t>
-  </si>
-  <si>
-    <t>PC_Raktar1</t>
-  </si>
-  <si>
-    <t>PC_Raktar2</t>
-  </si>
-  <si>
-    <t>Cell Tower</t>
-  </si>
-  <si>
-    <t>Összekötő router</t>
-  </si>
-  <si>
-    <t>S0/3/1:10.10.20.1</t>
-  </si>
-  <si>
-    <t>S0/3/0:10.10.70.1</t>
-  </si>
-  <si>
-    <t>G0/1: nincs ip (hsrp)</t>
-  </si>
-  <si>
-    <t>G0/0: 192.168.86.1</t>
-  </si>
-  <si>
-    <t>COS Szerver</t>
-  </si>
-  <si>
-    <t>Backbone: 192.168.86.2</t>
-  </si>
-  <si>
-    <t>Cellular: 172.16.20.1</t>
-  </si>
-  <si>
-    <t>Tablet_CT1</t>
-  </si>
-  <si>
-    <t>Tablet_CT2</t>
-  </si>
-  <si>
-    <t>172.16.20.20-től</t>
-  </si>
-  <si>
-    <t>172.16.20.25-ig</t>
   </si>
   <si>
     <t>S0/3/0: 10.10.10.1</t>
@@ -570,7 +571,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -621,14 +622,7 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -636,7 +630,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -645,13 +643,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -985,282 +986,288 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25"/>
   <cols>
-    <col min="1" max="2" width="9.125" style="1"/>
-    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
-    <col min="4" max="10" width="9.125" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
+    <col min="4" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="28" style="1" customWidth="1"/>
-    <col min="12" max="21" width="9.125" style="1"/>
-    <col min="22" max="22" width="12.75" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.125" style="1"/>
-    <col min="24" max="24" width="14.375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.125" style="1"/>
+    <col min="12" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="I1" s="8" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:24" ht="23.25" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:24" ht="23.25" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="I3" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="I5" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="I8" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="I8" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
       <c r="I9" s="8" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="A12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="I12" s="8" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
       <c r="I13" s="8" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="A14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="I14" s="8" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
       <c r="I15" s="8" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="A14:C17"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="I3:K4"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="D4:G5"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D6:G7"/>
+    <mergeCell ref="D8:G9"/>
+    <mergeCell ref="D10:G11"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="U8:V8"/>
     <mergeCell ref="W8:X8"/>
@@ -1270,91 +1277,85 @@
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="D4:G5"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D6:G7"/>
-    <mergeCell ref="D8:G9"/>
-    <mergeCell ref="D10:G11"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="I3:K4"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="A14:C17"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I9" sqref="I1:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25"/>
   <cols>
-    <col min="1" max="2" width="9.125" style="1"/>
-    <col min="3" max="3" width="26.75" style="1" customWidth="1"/>
-    <col min="4" max="10" width="9.125" style="1"/>
-    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="A1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="I1" s="8" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="I3" s="8" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1364,27 +1365,27 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="8" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -1394,129 +1395,129 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="8" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="8" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="8" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="8" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="A16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="8" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1524,18 +1525,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="D8:G9"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:G5"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="I3:K4"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="D6:G7"/>
-    <mergeCell ref="I5:K6"/>
     <mergeCell ref="A16:C17"/>
     <mergeCell ref="D16:G17"/>
     <mergeCell ref="A10:C11"/>
@@ -1544,6 +1533,18 @@
     <mergeCell ref="D12:G13"/>
     <mergeCell ref="A14:C15"/>
     <mergeCell ref="D14:G15"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="I3:K4"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="D6:G7"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D8:G9"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:G5"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1551,7 +1552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1561,121 +1562,121 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="11" max="11" width="19.875" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="A1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="I1" s="8" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="I3" s="8" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="I5" s="8" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="23.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="23.25">
-      <c r="A7" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="A7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="23.25">
-      <c r="A8" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1685,129 +1686,124 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="23.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="23.25">
-      <c r="A10" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="8" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="I10" s="8" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:11" ht="23.25">
-      <c r="A12" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="8" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="I12" s="8" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="23.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="I13" s="8" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" ht="23.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="I14" s="8" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:11" ht="23.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D12:G13"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="D8:G9"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="A7:C7"/>
@@ -1824,13 +1820,18 @@
     <mergeCell ref="A10:C11"/>
     <mergeCell ref="D10:G11"/>
     <mergeCell ref="A12:C13"/>
+    <mergeCell ref="D12:G13"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1840,178 +1841,178 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="A1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="I1" s="8" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="I3" s="8" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="23.25">
-      <c r="A4" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="23.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="I5" s="8" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="23.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="23.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="8" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="8" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="8" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="8" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -2019,6 +2020,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="I3:K4"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="D11:G12"/>
     <mergeCell ref="A13:C14"/>
     <mergeCell ref="D13:G14"/>
     <mergeCell ref="D9:G9"/>
@@ -2030,81 +2037,75 @@
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="A4:C8"/>
     <mergeCell ref="D8:G8"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="I3:K4"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="D11:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI90"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D30" sqref="A1:G31"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25"/>
   <cols>
-    <col min="1" max="2" width="9.125" style="1"/>
-    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
-    <col min="4" max="10" width="9.125" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="31.5703125" style="1" customWidth="1"/>
+    <col min="4" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="17" width="9.125" style="1"/>
-    <col min="18" max="18" width="11.25" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.125" style="1"/>
+    <col min="12" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="11.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="A1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="I1" s="8" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="M1" s="8" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="Q1" s="8" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="U1" s="8" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
       <c r="Y1" s="8" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
     </row>
     <row r="2" spans="1:27" ht="23.25" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -2122,47 +2123,47 @@
       <c r="AA2" s="8"/>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="I3" s="8" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="M3" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="Q3" s="8" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="U3" s="8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="Y3" s="8" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="8" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -2184,47 +2185,47 @@
       <c r="AA4" s="8"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="M5" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="Q5" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="U5" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="Y5" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -2246,468 +2247,468 @@
       <c r="AA6" s="8"/>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="A10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="8" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="A12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="A16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:30" ht="23.25" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
     </row>
     <row r="18" spans="1:30" ht="23.25" customHeight="1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
     </row>
     <row r="19" spans="1:30" ht="23.25" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="A20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="A22" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="A26" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="8" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="A28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="8" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="V30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
+      <c r="V30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="8"/>
@@ -2717,65 +2718,65 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="V31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
+      <c r="V31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="A35" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
       <c r="I35" s="8" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
       <c r="I37" s="8" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="A38" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="8" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -2785,27 +2786,27 @@
       <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="I39" s="8" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="A40" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="8" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -2815,198 +2816,198 @@
       <c r="K40" s="8"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
+      <c r="A42" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="8" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
+      <c r="A44" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="8" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
+      <c r="A46" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="8" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
+      <c r="A48" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
       <c r="D48" s="8" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
     </row>
     <row r="49" spans="1:27">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:27">
-      <c r="A50" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
+      <c r="A50" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="8" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:27">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
     </row>
     <row r="54" spans="1:27">
-      <c r="A54" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
+      <c r="A54" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
       <c r="I54" s="8" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
     </row>
     <row r="55" spans="1:27">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
     </row>
     <row r="56" spans="1:27" ht="23.25" customHeight="1">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
       <c r="I56" s="8" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
     </row>
     <row r="57" spans="1:27" ht="23.25" customHeight="1">
-      <c r="A57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
+      <c r="A57" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="8" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -3016,15 +3017,15 @@
       <c r="K57" s="8"/>
     </row>
     <row r="58" spans="1:27" ht="23.25" customHeight="1">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="I58" s="8" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -3036,13 +3037,13 @@
       <c r="AA58" s="8"/>
     </row>
     <row r="59" spans="1:27">
-      <c r="A59" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
+      <c r="A59" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="8" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -3058,16 +3059,16 @@
       <c r="AA59" s="8"/>
     </row>
     <row r="60" spans="1:27">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
@@ -3076,20 +3077,20 @@
       <c r="AA60" s="8"/>
     </row>
     <row r="61" spans="1:27">
-      <c r="A61" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
+      <c r="A61" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="8" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
       <c r="S61" s="8"/>
@@ -3098,16 +3099,16 @@
       <c r="AA61" s="8"/>
     </row>
     <row r="62" spans="1:27">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
@@ -3116,20 +3117,20 @@
       <c r="AA62" s="8"/>
     </row>
     <row r="63" spans="1:27">
-      <c r="A63" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
+      <c r="A63" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="8" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
@@ -3138,143 +3139,143 @@
       <c r="AA63" s="8"/>
     </row>
     <row r="64" spans="1:27">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
     </row>
     <row r="65" spans="1:35">
-      <c r="A65" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
+      <c r="A65" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="8" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
     </row>
     <row r="66" spans="1:35">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
     </row>
     <row r="67" spans="1:35">
-      <c r="A67" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
+      <c r="A67" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="8" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
     </row>
     <row r="68" spans="1:35">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
     </row>
     <row r="69" spans="1:35">
-      <c r="A69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
+      <c r="A69" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
       <c r="D69" s="8" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
     </row>
     <row r="70" spans="1:35">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
     </row>
     <row r="74" spans="1:35">
-      <c r="A74" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+      <c r="A74" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
       <c r="I74" s="8" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
     </row>
     <row r="75" spans="1:35">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
-      <c r="AI75" s="3"/>
+      <c r="AI75" s="7"/>
     </row>
     <row r="76" spans="1:35">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
       <c r="I76" s="8" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
     </row>
     <row r="77" spans="1:35">
-      <c r="A77" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
+      <c r="A77" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
       <c r="D77" s="8" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -3284,27 +3285,27 @@
       <c r="K77" s="8"/>
     </row>
     <row r="78" spans="1:35">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="I78" s="8" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
     </row>
     <row r="79" spans="1:35">
-      <c r="A79" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
+      <c r="A79" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="8" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
@@ -3314,143 +3315,143 @@
       <c r="K79" s="8"/>
     </row>
     <row r="80" spans="1:35">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
+      <c r="A81" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="8" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
+      <c r="A83" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
       <c r="D83" s="8" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
+      <c r="A85" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
       <c r="D85" s="8" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
+      <c r="A87" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
       <c r="D87" s="8" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
+      <c r="A89" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
       <c r="D89" s="8" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
@@ -3458,88 +3459,6 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="D4:G5"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="D14:G15"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="D6:G7"/>
-    <mergeCell ref="D8:G9"/>
-    <mergeCell ref="D12:G13"/>
-    <mergeCell ref="D10:G11"/>
-    <mergeCell ref="I35:K36"/>
-    <mergeCell ref="I37:K38"/>
-    <mergeCell ref="I39:K40"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:G31"/>
-    <mergeCell ref="A35:G37"/>
-    <mergeCell ref="A20:C21"/>
-    <mergeCell ref="D20:G21"/>
-    <mergeCell ref="A26:C27"/>
-    <mergeCell ref="D26:G27"/>
-    <mergeCell ref="A28:C29"/>
-    <mergeCell ref="D28:G29"/>
-    <mergeCell ref="D40:G41"/>
-    <mergeCell ref="A40:C41"/>
-    <mergeCell ref="A22:C23"/>
-    <mergeCell ref="D22:G23"/>
-    <mergeCell ref="A24:C25"/>
-    <mergeCell ref="D24:G25"/>
-    <mergeCell ref="Q58:S59"/>
-    <mergeCell ref="Q60:S61"/>
-    <mergeCell ref="Q62:S63"/>
-    <mergeCell ref="Y58:AA59"/>
-    <mergeCell ref="Y60:AA61"/>
-    <mergeCell ref="Y62:AA63"/>
-    <mergeCell ref="A42:C43"/>
-    <mergeCell ref="D42:G43"/>
-    <mergeCell ref="A44:C45"/>
-    <mergeCell ref="D44:G45"/>
-    <mergeCell ref="I58:K59"/>
-    <mergeCell ref="A57:C58"/>
-    <mergeCell ref="D57:G58"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:G60"/>
-    <mergeCell ref="A50:C51"/>
-    <mergeCell ref="D50:G51"/>
-    <mergeCell ref="A54:G56"/>
-    <mergeCell ref="I54:K55"/>
-    <mergeCell ref="I56:K57"/>
-    <mergeCell ref="A63:C64"/>
-    <mergeCell ref="D63:G64"/>
-    <mergeCell ref="A65:C66"/>
-    <mergeCell ref="D65:G66"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="D61:G62"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="D38:G39"/>
-    <mergeCell ref="A48:C49"/>
-    <mergeCell ref="D48:G49"/>
-    <mergeCell ref="A46:C47"/>
-    <mergeCell ref="D46:G47"/>
-    <mergeCell ref="I74:K75"/>
-    <mergeCell ref="I76:K77"/>
-    <mergeCell ref="A77:C78"/>
-    <mergeCell ref="D77:G78"/>
-    <mergeCell ref="I78:K79"/>
-    <mergeCell ref="A79:C80"/>
-    <mergeCell ref="D79:G80"/>
-    <mergeCell ref="A74:G76"/>
-    <mergeCell ref="A67:C68"/>
-    <mergeCell ref="D67:G68"/>
-    <mergeCell ref="A69:C70"/>
-    <mergeCell ref="D69:G70"/>
-    <mergeCell ref="A81:C82"/>
-    <mergeCell ref="D81:G82"/>
-    <mergeCell ref="A89:C90"/>
-    <mergeCell ref="D89:G90"/>
-    <mergeCell ref="A83:C84"/>
-    <mergeCell ref="D83:G84"/>
-    <mergeCell ref="A85:C86"/>
-    <mergeCell ref="D85:G86"/>
-    <mergeCell ref="A87:C88"/>
-    <mergeCell ref="D87:G88"/>
     <mergeCell ref="A18:C19"/>
     <mergeCell ref="D18:G19"/>
     <mergeCell ref="A1:G3"/>
@@ -3564,59 +3483,141 @@
     <mergeCell ref="A12:C13"/>
     <mergeCell ref="I3:K4"/>
     <mergeCell ref="A4:C5"/>
+    <mergeCell ref="A81:C82"/>
+    <mergeCell ref="D81:G82"/>
+    <mergeCell ref="A89:C90"/>
+    <mergeCell ref="D89:G90"/>
+    <mergeCell ref="A83:C84"/>
+    <mergeCell ref="D83:G84"/>
+    <mergeCell ref="A85:C86"/>
+    <mergeCell ref="D85:G86"/>
+    <mergeCell ref="A87:C88"/>
+    <mergeCell ref="D87:G88"/>
+    <mergeCell ref="I74:K75"/>
+    <mergeCell ref="I76:K77"/>
+    <mergeCell ref="A77:C78"/>
+    <mergeCell ref="D77:G78"/>
+    <mergeCell ref="I78:K79"/>
+    <mergeCell ref="A79:C80"/>
+    <mergeCell ref="D79:G80"/>
+    <mergeCell ref="A74:G76"/>
+    <mergeCell ref="A67:C68"/>
+    <mergeCell ref="D67:G68"/>
+    <mergeCell ref="A69:C70"/>
+    <mergeCell ref="D69:G70"/>
+    <mergeCell ref="A65:C66"/>
+    <mergeCell ref="D65:G66"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="D61:G62"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="D38:G39"/>
+    <mergeCell ref="A48:C49"/>
+    <mergeCell ref="D48:G49"/>
+    <mergeCell ref="A46:C47"/>
+    <mergeCell ref="D46:G47"/>
+    <mergeCell ref="Q58:S59"/>
+    <mergeCell ref="Q60:S61"/>
+    <mergeCell ref="Q62:S63"/>
+    <mergeCell ref="Y58:AA59"/>
+    <mergeCell ref="Y60:AA61"/>
+    <mergeCell ref="Y62:AA63"/>
+    <mergeCell ref="A42:C43"/>
+    <mergeCell ref="D42:G43"/>
+    <mergeCell ref="A44:C45"/>
+    <mergeCell ref="D44:G45"/>
+    <mergeCell ref="I58:K59"/>
+    <mergeCell ref="A57:C58"/>
+    <mergeCell ref="D57:G58"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:G60"/>
+    <mergeCell ref="A50:C51"/>
+    <mergeCell ref="D50:G51"/>
+    <mergeCell ref="A54:G56"/>
+    <mergeCell ref="I54:K55"/>
+    <mergeCell ref="I56:K57"/>
+    <mergeCell ref="A63:C64"/>
+    <mergeCell ref="D63:G64"/>
+    <mergeCell ref="I35:K36"/>
+    <mergeCell ref="I37:K38"/>
+    <mergeCell ref="I39:K40"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:G31"/>
+    <mergeCell ref="A35:G37"/>
+    <mergeCell ref="A20:C21"/>
+    <mergeCell ref="D20:G21"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="D26:G27"/>
+    <mergeCell ref="A28:C29"/>
+    <mergeCell ref="D28:G29"/>
+    <mergeCell ref="D40:G41"/>
+    <mergeCell ref="A40:C41"/>
+    <mergeCell ref="A22:C23"/>
+    <mergeCell ref="D22:G23"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="D24:G25"/>
+    <mergeCell ref="D4:G5"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="D14:G15"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D6:G7"/>
+    <mergeCell ref="D8:G9"/>
+    <mergeCell ref="D12:G13"/>
+    <mergeCell ref="D10:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="A1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="8" t="s">
         <v>150</v>
       </c>
@@ -3625,18 +3626,18 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="8" t="s">
         <v>151</v>
       </c>
@@ -3645,18 +3646,18 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="8" t="s">
         <v>152</v>
       </c>
@@ -3665,18 +3666,18 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="8" t="s">
         <v>153</v>
       </c>
@@ -3685,18 +3686,18 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="8" t="s">
         <v>154</v>
       </c>
@@ -3705,18 +3706,18 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="8" t="s">
         <v>155</v>
       </c>
@@ -3725,20 +3726,20 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="8" t="s">
         <v>157</v>
       </c>
@@ -3747,18 +3748,18 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="8" t="s">
         <v>158</v>
       </c>
@@ -3767,18 +3768,18 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="8" t="s">
         <v>159</v>
       </c>
@@ -3787,18 +3788,18 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="8" t="s">
         <v>160</v>
       </c>
@@ -3807,18 +3808,18 @@
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="8" t="s">
         <v>161</v>
       </c>
@@ -3827,18 +3828,18 @@
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="8" t="s">
         <v>162</v>
       </c>
@@ -3847,18 +3848,18 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="8" t="s">
         <v>163</v>
       </c>
@@ -3867,18 +3868,18 @@
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="8" t="s">
         <v>164</v>
       </c>
@@ -3887,20 +3888,20 @@
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="8" t="s">
         <v>166</v>
       </c>
@@ -3909,18 +3910,18 @@
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="8" t="s">
         <v>167</v>
       </c>
@@ -3929,18 +3930,18 @@
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="8" t="s">
         <v>168</v>
       </c>
@@ -3949,18 +3950,18 @@
       <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="8" t="s">
         <v>169</v>
       </c>
@@ -3969,18 +3970,18 @@
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="8" t="s">
         <v>170</v>
       </c>
@@ -3989,18 +3990,18 @@
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="8" t="s">
         <v>171</v>
       </c>
@@ -4009,18 +4010,18 @@
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="8" t="s">
         <v>172</v>
       </c>
@@ -4029,18 +4030,18 @@
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="8" t="s">
         <v>173</v>
       </c>
@@ -4049,18 +4050,18 @@
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="8" t="s">
         <v>174</v>
       </c>
@@ -4069,9 +4070,9 @@
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -4079,16 +4080,10 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D44:G45"/>
-    <mergeCell ref="D46:G47"/>
-    <mergeCell ref="D48:G49"/>
-    <mergeCell ref="A32:C49"/>
-    <mergeCell ref="D32:G33"/>
-    <mergeCell ref="D34:G35"/>
-    <mergeCell ref="D36:G37"/>
-    <mergeCell ref="D38:G39"/>
-    <mergeCell ref="D40:G41"/>
-    <mergeCell ref="D42:G43"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="D4:G5"/>
+    <mergeCell ref="D6:G7"/>
+    <mergeCell ref="D8:G9"/>
     <mergeCell ref="D28:G29"/>
     <mergeCell ref="D30:G31"/>
     <mergeCell ref="A4:C15"/>
@@ -4102,10 +4097,16 @@
     <mergeCell ref="D10:G11"/>
     <mergeCell ref="D12:G13"/>
     <mergeCell ref="D14:G15"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="D4:G5"/>
-    <mergeCell ref="D6:G7"/>
-    <mergeCell ref="D8:G9"/>
+    <mergeCell ref="D44:G45"/>
+    <mergeCell ref="D46:G47"/>
+    <mergeCell ref="D48:G49"/>
+    <mergeCell ref="A32:C49"/>
+    <mergeCell ref="D32:G33"/>
+    <mergeCell ref="D34:G35"/>
+    <mergeCell ref="D36:G37"/>
+    <mergeCell ref="D38:G39"/>
+    <mergeCell ref="D40:G41"/>
+    <mergeCell ref="D42:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
